--- a/spreadsheets/BSE5qubit_mean_encoder.xlsx
+++ b/spreadsheets/BSE5qubit_mean_encoder.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05733248229670559</v>
+        <v>0.5483334058394633</v>
       </c>
     </row>
     <row r="3">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05791985329330198</v>
+        <v>0.4388152899725493</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05899351290211571</v>
+        <v>0.2924055799924064</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1825196185001244</v>
+        <v>0.2633722774678172</v>
       </c>
     </row>
     <row r="6">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5508893954247943</v>
+        <v>0.7261509110052229</v>
       </c>
     </row>
     <row r="7">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5423898542467946</v>
+        <v>0.5856228053907445</v>
       </c>
     </row>
     <row r="8">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.01818849148265514</v>
+        <v>0.5279640510362523</v>
       </c>
     </row>
     <row r="9">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2564982533992526</v>
+        <v>0.4028384916812343</v>
       </c>
     </row>
     <row r="10">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.03841076813034878</v>
+        <v>0.3070763867582285</v>
       </c>
     </row>
     <row r="11">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0428002220638801</v>
+        <v>0.04688115307313914</v>
       </c>
     </row>
     <row r="12">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5823606854455605</v>
+        <v>0.6404433048987681</v>
       </c>
     </row>
     <row r="13">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5074949193113604</v>
+        <v>0.5512165644000019</v>
       </c>
     </row>
     <row r="14">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.06064788272943192</v>
+        <v>0.527506874197718</v>
       </c>
     </row>
     <row r="15">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2687935256130056</v>
+        <v>0.3362693909433243</v>
       </c>
     </row>
   </sheetData>
